--- a/biology/Histoire de la zoologie et de la botanique/Yang_Zhongjian/Yang_Zhongjian.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yang_Zhongjian/Yang_Zhongjian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yang Zhongjian (chinois simplifié : 杨锺健 ; chinois traditionnel : 楊鍾健 ; pinyin : Yáng Zhōngjiàn ; prénom social Keqiang 克强 ; également connu sous le nom de Chung Chien Young ou C. C. Young) est un paléontologue chinois, né en 1897 à Huaxian, dans la province Shaanxi et mort en 1979. Il est considéré comme le père de la paléontologie des vertébrés chinoise.
 Yang est diplômé du département de géologie de l’université de Pékin en 1923 et reçoit un doctorat à l’université de Munich. Il enseigne dans le service de géologie de l’université de Pékin et à l’université du nord-ouest de Xi'an. Il participe à la création de l’institut de paléontologie et de paléoanthropologie des vertébrés de Pékin qui abrite l’une des plus riches collections du monde. Il dirige cette institution ainsi que le muséum d’histoire naturelle de Pékin.
-Yang dirige les récoltes et les recherches sur les dinosaures en Chine de 1933 aux années 1970. Il supervise les découvertes parmi les plus importantes des fossiles de l’histoire, comme les prosauropodes Lufengosaurus et Yunnanosaurus, l’ornithopode Tsintaosaurus et le gigantesque sauropode Mamenchisaurus ainsi que le premier stégosaure chinois Chialingosaurus. En 1973, il décrit le squelette de Vjushkovia sinensis[1].
+Yang dirige les récoltes et les recherches sur les dinosaures en Chine de 1933 aux années 1970. Il supervise les découvertes parmi les plus importantes des fossiles de l’histoire, comme les prosauropodes Lufengosaurus et Yunnanosaurus, l’ornithopode Tsintaosaurus et le gigantesque sauropode Mamenchisaurus ainsi que le premier stégosaure chinois Chialingosaurus. En 1973, il décrit le squelette de Vjushkovia sinensis.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, Lu et ses collègues décrivent la 2e espèce du genre Yunnanosaurus qu'ils nomment Y. youngi en hommage à C. C. Young plus de cinquante ans après la description de l'espèce type, Y. huangi, par C. C. Young lui-même en 1942.
-D'autre part, au moins deux genres fossiles pourraient se référer à son prénom, Zhongjian, et une espèce à son patronyme transcrit « Yang » : Zhongjianichthys  (Shu 2003)[réf. souhaitée], Zhongjianosaurus et Z. yangi (Xu &amp; Qin 2017)[2]. En 1985, les paléontologues russes NN Kalandadze et Andreii Sennikov érigent le nouveau genre Youngosuchus pour V. sinensis en lui donnant le nom de Young[3].
+D'autre part, au moins deux genres fossiles pourraient se référer à son prénom, Zhongjian, et une espèce à son patronyme transcrit « Yang » : Zhongjianichthys  (Shu 2003)[réf. souhaitée], Zhongjianosaurus et Z. yangi (Xu &amp; Qin 2017). En 1985, les paléontologues russes NN Kalandadze et Andreii Sennikov érigent le nouveau genre Youngosuchus pour V. sinensis en lui donnant le nom de Young.
 </t>
         </is>
       </c>
